--- a/classfiers/chatty/knn/smote/chatty-knn-smote-results.xlsx
+++ b/classfiers/chatty/knn/smote/chatty-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9385245901639344</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9682875264270614</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9716157205240175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8773946360153256</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9346938775510204</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9652173913043479</v>
+        <v>0.9956521739130435</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9829059829059829</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9913793103448275</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9704641350210971</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9850107066381156</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9978165938864629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978213507625272</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9529883036038767</v>
+        <v>0.9982832618025752</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9754385543447104</v>
+        <v>0.9991379310344828</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9869299411429656</v>
+        <v>0.9991304347826088</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/knn/smote/chatty-knn-smote-results.xlsx
+++ b/classfiers/chatty/knn/smote/chatty-knn-smote-results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9853678929765886</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.985781990521327</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9928400954653938</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9927536231884058</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9976019184652278</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9975148643626904</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9982832618025752</v>
+        <v>0.990565657488321</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9991379310344828</v>
+        <v>0.9952312599289815</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991304347826088</v>
+        <v>0.995127276105537</v>
       </c>
     </row>
   </sheetData>
